--- a/timeline pengembangan.xlsx
+++ b/timeline pengembangan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Documents\tugas\tugas besar laravel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{12029519-40C0-417B-AC2B-5E435F7B1B52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70D12015-2CE4-49CB-A71A-333D6574D16D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -123,7 +123,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -160,6 +160,24 @@
         <bgColor rgb="FFFF0000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="7">
     <border>
@@ -251,7 +269,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -272,6 +290,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -492,7 +513,9 @@
   </sheetPr>
   <dimension ref="B2:R29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R9" sqref="R9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -584,7 +607,7 @@
       <c r="B4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="3"/>
+      <c r="C4" s="14"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
@@ -815,7 +838,7 @@
       <c r="B15" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="4"/>
+      <c r="C15" s="15"/>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
@@ -836,7 +859,7 @@
       <c r="B16" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="4"/>
+      <c r="C16" s="16"/>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
